--- a/Accounts-Schedules/تدريب سونين 15-9-2025.xlsx
+++ b/Accounts-Schedules/تدريب سونين 15-9-2025.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
   <si>
     <t>Below is the list of trainee scheduled for the Training at sonnen on Monday, September, 15th, from 10 AM to 7 PM. Please ensure that if you are unable to reach the candidate listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>ابراهيم بلال</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>قسم الوايلي</t>
   </si>
   <si>
     <t>محمد حسن</t>
@@ -1964,7 +1970,7 @@
   <dimension ref="C1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C3:I13"/>
+      <selection activeCell="I13" sqref="C3:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1983,7 +1989,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="3:10">
+    <row r="2" ht="15.25" spans="3:10">
       <c r="C2" s="2" t="s">
         <v>46</v>
       </c>
@@ -2009,7 +2015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:10">
+    <row r="3" ht="15.25" spans="3:10">
       <c r="C3" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:10">
+    <row r="4" ht="15.25" spans="3:10">
       <c r="C4" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2061,7 +2067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="3:10">
+    <row r="5" ht="15.25" spans="3:10">
       <c r="C5" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:10">
+    <row r="6" ht="15.25" spans="3:10">
       <c r="C6" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="3:10">
+    <row r="7" ht="15.25" spans="3:10">
       <c r="C7" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2139,7 +2145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:10">
+    <row r="8" ht="15.25" spans="3:10">
       <c r="C8" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2165,7 +2171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="3:10">
+    <row r="9" ht="15.25" spans="3:10">
       <c r="C9" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2208,16 +2214,16 @@
         <v>59</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="3:10">
+    <row r="11" ht="15.25" spans="3:10">
       <c r="C11" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>49</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>36</v>
@@ -2243,7 +2249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="3:10">
+    <row r="12" ht="15.25" spans="3:10">
       <c r="C12" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2257,7 +2263,7 @@
         <v>49</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>36</v>
@@ -2269,7 +2275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="3:10">
+    <row r="13" ht="15.25" spans="3:10">
       <c r="C13" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2283,7 +2289,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>36</v>
@@ -2297,7 +2303,7 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C2:J13" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="C3:J13">
+    <sortState ref="C2:J13">
       <sortCondition ref="H2"/>
     </sortState>
     <extLst/>

--- a/Accounts-Schedules/تدريب سونين 15-9-2025.xlsx
+++ b/Accounts-Schedules/تدريب سونين 15-9-2025.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="67">
   <si>
     <t>Below is the list of trainee scheduled for the Training at sonnen on Monday, September, 15th, from 10 AM to 7 PM. Please ensure that if you are unable to reach the candidate listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
@@ -183,10 +183,25 @@
     <t>Sonnen Training</t>
   </si>
   <si>
+    <t>حسام هشام</t>
+  </si>
+  <si>
+    <t>التحرير</t>
+  </si>
+  <si>
+    <t>مستشفى احمد ماهر</t>
+  </si>
+  <si>
     <t>شروق محمد</t>
   </si>
   <si>
-    <t>حسام هشام</t>
+    <t>ابراهيم بلال</t>
+  </si>
+  <si>
+    <t>العباسية و الضاهر</t>
+  </si>
+  <si>
+    <t>قسم الوايلي</t>
   </si>
   <si>
     <t>منة الله أحمد</t>
@@ -208,15 +223,6 @@
   </si>
   <si>
     <t>دائري</t>
-  </si>
-  <si>
-    <t>ابراهيم بلال</t>
-  </si>
-  <si>
-    <t>العباسية و الضاهر</t>
-  </si>
-  <si>
-    <t>قسم الوايلي</t>
   </si>
   <si>
     <t>محمد حسن</t>
@@ -1989,7 +1995,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" ht="15.25" spans="3:10">
+    <row r="2" spans="3:10">
       <c r="C2" s="2" t="s">
         <v>46</v>
       </c>
@@ -2015,15 +2021,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15.25" spans="3:10">
+    <row r="3" spans="3:10">
       <c r="C3" s="4">
         <v>0.416666666666667</v>
       </c>
       <c r="D3" s="4">
         <v>0.791666666666667</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
+      <c r="E3" s="5">
+        <v>1010368141</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>49</v>
@@ -2032,30 +2038,30 @@
         <v>50</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" ht="15.25" spans="3:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10">
       <c r="C4" s="4">
         <v>0.416666666666667</v>
       </c>
       <c r="D4" s="4">
         <v>0.791666666666667</v>
       </c>
-      <c r="E4" s="5">
-        <v>1010368141</v>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>34</v>
@@ -2064,10 +2070,10 @@
         <v>35</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="15.25" spans="3:10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10">
       <c r="C5" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2075,25 +2081,25 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E5" s="5">
-        <v>1123518604</v>
+        <v>1004496366</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" ht="15.25" spans="3:10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10">
       <c r="C6" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2101,25 +2107,25 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E6" s="5">
-        <v>1064855780</v>
+        <v>1123518604</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" ht="15.25" spans="3:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
       <c r="C7" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2127,25 +2133,25 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E7" s="5">
-        <v>1018950953</v>
+        <v>1064855780</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" ht="15.25" spans="3:10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
       <c r="C8" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2153,25 +2159,25 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E8" s="5">
-        <v>1116915333</v>
+        <v>1018950953</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" ht="15.25" spans="3:10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
       <c r="C9" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2179,22 +2185,22 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E9" s="5">
-        <v>1003492249</v>
+        <v>1116915333</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="3:10">
@@ -2205,25 +2211,25 @@
         <v>0.791666666666667</v>
       </c>
       <c r="E10" s="5">
-        <v>1004496366</v>
+        <v>1003492249</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" ht="15.25" spans="3:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
       <c r="C11" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2237,7 +2243,7 @@
         <v>49</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>36</v>
@@ -2249,7 +2255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" ht="15.25" spans="3:10">
+    <row r="12" spans="3:10">
       <c r="C12" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2263,7 +2269,7 @@
         <v>49</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>36</v>
@@ -2275,7 +2281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="15.25" spans="3:10">
+    <row r="13" spans="3:10">
       <c r="C13" s="4">
         <v>0.416666666666667</v>
       </c>
@@ -2289,7 +2295,7 @@
         <v>49</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>36</v>
@@ -2303,7 +2309,7 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C2:J13" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="C2:J13">
+    <sortState ref="C3:J13">
       <sortCondition ref="H2"/>
     </sortState>
     <extLst/>
